--- a/Examples/met_mast_reader/SVI_Definition.xlsx
+++ b/Examples/met_mast_reader/SVI_Definition.xlsx
@@ -8,21 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F818F9-B1B0-46FA-9E4C-94D9F17929FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5EB4E7-2749-4299-B7F3-CE1B7E8A5F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1368" windowWidth="17280" windowHeight="9036" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35340" yWindow="1470" windowWidth="19395" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITFC" sheetId="1" r:id="rId1"/>
     <sheet name="HOST" sheetId="2" r:id="rId2"/>
     <sheet name="Submodels" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="68">
   <si>
     <t>InputNumber</t>
   </si>
@@ -88,13 +101,151 @@
   </si>
   <si>
     <t>PortName</t>
+  </si>
+  <si>
+    <t>ws_110m</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>ws_60m</t>
+  </si>
+  <si>
+    <t>wd_110m</t>
+  </si>
+  <si>
+    <t>met_mast</t>
+  </si>
+  <si>
+    <t>struct</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>met_mast_ITFC</t>
+  </si>
+  <si>
+    <t>WRITE</t>
+  </si>
+  <si>
+    <t>exchange_data_mm</t>
+  </si>
+  <si>
+    <t>mm_ws_110m</t>
+  </si>
+  <si>
+    <t>inherit</t>
+  </si>
+  <si>
+    <t>[m/s]</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>mm_ws_60m</t>
+  </si>
+  <si>
+    <t>mm_wd_110m</t>
+  </si>
+  <si>
+    <t>[deg]</t>
+  </si>
+  <si>
+    <t>[-]</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>avg_TI</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>avg_ws_110m</t>
+  </si>
+  <si>
+    <t>avg_ws_60m</t>
+  </si>
+  <si>
+    <t>avg_shearExp</t>
+  </si>
+  <si>
+    <t>avg_wd_110m</t>
+  </si>
+  <si>
+    <t>avg_inflowState</t>
+  </si>
+  <si>
+    <t>avg_inflow_AppStatus</t>
+  </si>
+  <si>
+    <t>uint16</t>
+  </si>
+  <si>
+    <t>host_calc_avg</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>input_ws_110m</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>input_ws_60m</t>
+  </si>
+  <si>
+    <t>input_wd_110m</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>output_TI</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>output_ws_110m</t>
+  </si>
+  <si>
+    <t>output_ws_60m</t>
+  </si>
+  <si>
+    <t>output_shearExp</t>
+  </si>
+  <si>
+    <t>output_wd_110m</t>
+  </si>
+  <si>
+    <t>inflowState</t>
+  </si>
+  <si>
+    <t>output_InflowOK</t>
+  </si>
+  <si>
+    <t>AppStatus</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -106,12 +257,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,9 +283,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,13 +602,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,6 +642,118 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -481,14 +762,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8663FA-0CDE-4A59-9A86-DA24AFE22438}">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268AA5C6-13BE-4981-B2BC-E785E70F9BEE}">
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,6 +835,452 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -544,14 +1289,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B93383D-DEE7-49EE-B21B-AA6898C63DD1}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA5564-094E-4052-9C54-1B52A9DCD30C}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -585,8 +1345,353 @@
       <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="e">
-        <v>#N/A</v>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/met_mast_reader/SVI_Definition.xlsx
+++ b/Examples/met_mast_reader/SVI_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5EB4E7-2749-4299-B7F3-CE1B7E8A5F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05497FD-836D-4828-96DA-41DBCE6133FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35340" yWindow="1470" windowWidth="19395" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35340" yWindow="1470" windowWidth="19395" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITFC" sheetId="1" r:id="rId1"/>
@@ -283,11 +283,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,63 +669,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="b">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -765,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268AA5C6-13BE-4981-B2BC-E785E70F9BEE}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Examples/met_mast_reader/SVI_Definition.xlsx
+++ b/Examples/met_mast_reader/SVI_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05497FD-836D-4828-96DA-41DBCE6133FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D81A1-5134-444F-8556-56D2D892AD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35340" yWindow="1470" windowWidth="19395" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="1590" windowWidth="15510" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITFC" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -603,11 +603,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
@@ -617,7 +617,7 @@
     <col min="7" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -764,11 +764,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268AA5C6-13BE-4981-B2BC-E785E70F9BEE}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -786,7 +786,7 @@
     <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -836,7 +836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -883,7 +883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -930,7 +930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -977,7 +977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1295,7 +1295,7 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -1310,7 +1310,7 @@
     <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
